--- a/Code/SampleRun_Environment_Wind/1500Scens/1500_Naive_CI.xlsx
+++ b/Code/SampleRun_Environment_Wind/1500Scens/1500_Naive_CI.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\charl\OneDrive\Dokumente\A_Uni\HiWi\ArticleSubgradient\Code\SampleRun_Environment_Wind\1500Scens\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B0E24761-2EC8-418B-BD75-02498ACE84AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8E07756-A429-46AC-B5EE-7DEC6E74CA40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="28">
   <si>
     <t>Instance</t>
   </si>
@@ -54,15 +54,6 @@
   </si>
   <si>
     <t>Time Naive</t>
-  </si>
-  <si>
-    <t>CI Time</t>
-  </si>
-  <si>
-    <t>CI Objective</t>
-  </si>
-  <si>
-    <t>CI Gap</t>
   </si>
   <si>
     <t>Mean Obj:</t>
@@ -514,16 +505,16 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" t="s">
         <v>18</v>
-      </c>
-      <c r="E1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G1" t="s">
-        <v>21</v>
       </c>
       <c r="H1" t="s">
         <v>3</v>
@@ -532,31 +523,31 @@
         <v>4</v>
       </c>
       <c r="J1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="K1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="L1" t="s">
         <v>5</v>
       </c>
       <c r="M1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N1" t="s">
+        <v>22</v>
+      </c>
+      <c r="O1" t="s">
+        <v>23</v>
+      </c>
+      <c r="P1" t="s">
         <v>24</v>
       </c>
-      <c r="N1" t="s">
+      <c r="Q1" t="s">
         <v>25</v>
       </c>
-      <c r="O1" t="s">
+      <c r="R1" t="s">
         <v>26</v>
-      </c>
-      <c r="P1" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>28</v>
-      </c>
-      <c r="R1" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.35">
@@ -613,7 +604,7 @@
         <v>3189.4830000000002</v>
       </c>
       <c r="R2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.35">
@@ -1649,10 +1640,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:Q32"/>
+  <dimension ref="A1:N27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1660,7 +1651,7 @@
     <col min="1" max="1" width="13.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1679,20 +1670,11 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>6</v>
-      </c>
-      <c r="J1" t="s">
-        <v>8</v>
-      </c>
-      <c r="L1" s="1">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="I1" s="1">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1711,21 +1693,21 @@
       <c r="F2">
         <v>4203</v>
       </c>
-      <c r="L2" t="s">
-        <v>9</v>
-      </c>
-      <c r="M2">
+      <c r="I2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J2">
         <f>SUM(E2:E21)/20</f>
         <v>3093.7831844999992</v>
       </c>
-      <c r="O2" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="L2" t="s">
+        <v>13</v>
+      </c>
+      <c r="N2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>10</v>
       </c>
@@ -1744,26 +1726,26 @@
       <c r="F3">
         <v>4204</v>
       </c>
+      <c r="I3" t="s">
+        <v>7</v>
+      </c>
+      <c r="J3">
+        <f>SUM(D2:D21)/20</f>
+        <v>0.76544100000000004</v>
+      </c>
       <c r="L3" t="s">
         <v>10</v>
       </c>
       <c r="M3">
-        <f>SUM(D2:D21)/20</f>
-        <v>0.76544100000000004</v>
-      </c>
-      <c r="O3" t="s">
-        <v>13</v>
-      </c>
-      <c r="P3">
-        <f>M2+(-1.96)*M6/(SQRT(20))</f>
+        <f>J2+(-1.96)*J6/(SQRT(20))</f>
         <v>2892.8535062743622</v>
       </c>
-      <c r="Q3">
-        <f>M2+1.96*M6/(SQRT(20))</f>
+      <c r="N3">
+        <f>J2+1.96*J6/(SQRT(20))</f>
         <v>3294.7128627256361</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>11</v>
       </c>
@@ -1782,26 +1764,26 @@
       <c r="F4">
         <v>4204</v>
       </c>
+      <c r="I4" t="s">
+        <v>8</v>
+      </c>
+      <c r="J4">
+        <f>SUM(F2:F21)/20</f>
+        <v>4203.8500000000004</v>
+      </c>
       <c r="L4" t="s">
         <v>11</v>
       </c>
       <c r="M4">
-        <f>SUM(F2:F21)/20</f>
-        <v>4203.8500000000004</v>
-      </c>
-      <c r="O4" t="s">
-        <v>14</v>
-      </c>
-      <c r="P4">
-        <f>M3-1.96*M7/(SQRT(20))</f>
+        <f>J3-1.96*J7/(SQRT(20))</f>
         <v>0.75020475509522377</v>
       </c>
-      <c r="Q4">
-        <f>M3+1.96*M7/(SQRT(20))</f>
+      <c r="N4">
+        <f>J3+1.96*J7/(SQRT(20))</f>
         <v>0.7806772449047763</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>12</v>
       </c>
@@ -1820,22 +1802,22 @@
       <c r="F5">
         <v>4204</v>
       </c>
+      <c r="I5" t="s">
+        <v>9</v>
+      </c>
       <c r="L5" t="s">
         <v>12</v>
       </c>
-      <c r="O5" t="s">
-        <v>15</v>
-      </c>
-      <c r="P5">
-        <f>M4-1.96*M8/(SQRT(20))</f>
+      <c r="M5">
+        <f>J4-1.96*J8/(SQRT(20))</f>
         <v>4203.6935065496582</v>
       </c>
-      <c r="Q5">
-        <f>M4+1.96*M8/(SQRT(20))</f>
+      <c r="N5">
+        <f>J4+1.96*J8/(SQRT(20))</f>
         <v>4204.0064934503425</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>13</v>
       </c>
@@ -1854,15 +1836,15 @@
       <c r="F6">
         <v>4204</v>
       </c>
-      <c r="L6" t="s">
-        <v>13</v>
-      </c>
-      <c r="M6">
+      <c r="I6" t="s">
+        <v>10</v>
+      </c>
+      <c r="J6">
         <f>_xlfn.STDEV.P(E2:E21)</f>
         <v>458.46165225477961</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>14</v>
       </c>
@@ -1881,15 +1863,15 @@
       <c r="F7">
         <v>4204</v>
       </c>
-      <c r="L7" t="s">
-        <v>14</v>
-      </c>
-      <c r="M7">
+      <c r="I7" t="s">
+        <v>11</v>
+      </c>
+      <c r="J7">
         <f>_xlfn.STDEV.P(D2:D21)</f>
         <v>3.4764570743790288E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>15</v>
       </c>
@@ -1908,15 +1890,15 @@
       <c r="F8">
         <v>4204</v>
       </c>
-      <c r="L8" t="s">
-        <v>15</v>
-      </c>
-      <c r="M8">
+      <c r="I8" t="s">
+        <v>12</v>
+      </c>
+      <c r="J8">
         <f>_xlfn.STDEV.P(F2:F21)</f>
         <v>0.35707142142714249</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>16</v>
       </c>
@@ -1935,11 +1917,9 @@
       <c r="F9">
         <v>4204</v>
       </c>
-      <c r="L9" s="1">
-        <v>0.03</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="I9" s="1"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>17</v>
       </c>
@@ -1958,21 +1938,8 @@
       <c r="F10">
         <v>4204</v>
       </c>
-      <c r="L10" t="s">
-        <v>9</v>
-      </c>
-      <c r="M10" t="e">
-        <f>AVERAGE(E22:E41)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O10" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>18</v>
       </c>
@@ -1991,26 +1958,9 @@
       <c r="F11">
         <v>4204</v>
       </c>
-      <c r="L11" t="s">
-        <v>10</v>
-      </c>
-      <c r="M11" s="2" t="e">
-        <f>AVERAGE(D22:D41)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O11" t="s">
-        <v>13</v>
-      </c>
-      <c r="P11" t="e">
-        <f>M10+(-1.96)*M14/(SQRT(20))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q11" t="e">
-        <f>M10+1.96*M14/(SQRT(20))</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="J11" s="2"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>19</v>
       </c>
@@ -2029,26 +1979,8 @@
       <c r="F12">
         <v>4204</v>
       </c>
-      <c r="L12" t="s">
-        <v>11</v>
-      </c>
-      <c r="M12" t="e">
-        <f>AVERAGE(F22:F41)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O12" t="s">
-        <v>14</v>
-      </c>
-      <c r="P12" t="e">
-        <f>M11-1.96*M15/(SQRT(20))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q12" t="e">
-        <f>M11+1.96*M15/(SQRT(20))</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.35">
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>2</v>
       </c>
@@ -2067,22 +1999,8 @@
       <c r="F13">
         <v>4203</v>
       </c>
-      <c r="L13" t="s">
-        <v>12</v>
-      </c>
-      <c r="O13" t="s">
-        <v>15</v>
-      </c>
-      <c r="P13" t="e">
-        <f>M12-1.96*M16/(SQRT(20))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q13" t="e">
-        <f>M12+1.96*M16/(SQRT(20))</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.35">
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>20</v>
       </c>
@@ -2101,15 +2019,8 @@
       <c r="F14">
         <v>4204</v>
       </c>
-      <c r="L14" t="s">
-        <v>13</v>
-      </c>
-      <c r="M14" t="e">
-        <f>_xlfn.STDEV.P(E22:E41)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.35">
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>3</v>
       </c>
@@ -2128,15 +2039,8 @@
       <c r="F15">
         <v>4204</v>
       </c>
-      <c r="L15" t="s">
-        <v>14</v>
-      </c>
-      <c r="M15" t="e">
-        <f>_xlfn.STDEV.P(D22:D41)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.35">
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>4</v>
       </c>
@@ -2155,15 +2059,8 @@
       <c r="F16">
         <v>4204</v>
       </c>
-      <c r="L16" t="s">
-        <v>15</v>
-      </c>
-      <c r="M16" t="e">
-        <f>_xlfn.STDEV.P(F22:F41)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.35">
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>5</v>
       </c>
@@ -2182,11 +2079,9 @@
       <c r="F17">
         <v>4203</v>
       </c>
-      <c r="L17" s="1">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="I17" s="1"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>6</v>
       </c>
@@ -2205,21 +2100,8 @@
       <c r="F18">
         <v>4204</v>
       </c>
-      <c r="L18" t="s">
-        <v>9</v>
-      </c>
-      <c r="M18" t="e">
-        <f>AVERAGE(E42:E61)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O18" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q18" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.35">
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>7</v>
       </c>
@@ -2238,26 +2120,9 @@
       <c r="F19">
         <v>4204</v>
       </c>
-      <c r="L19" t="s">
-        <v>10</v>
-      </c>
-      <c r="M19" s="2" t="e">
-        <f>AVERAGE(D42:D45,D47:D57,D59:D61)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O19" t="s">
-        <v>13</v>
-      </c>
-      <c r="P19" t="e">
-        <f>M18+(-1.96)*M22/(SQRT(20))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q19" t="e">
-        <f>M18+1.96*M22/(SQRT(20))</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="J19" s="2"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>8</v>
       </c>
@@ -2276,26 +2141,8 @@
       <c r="F20">
         <v>4204</v>
       </c>
-      <c r="L20" t="s">
-        <v>11</v>
-      </c>
-      <c r="M20" t="e">
-        <f>AVERAGE(F42:F61)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O20" t="s">
-        <v>14</v>
-      </c>
-      <c r="P20" t="e">
-        <f>M19-1.96*M23/(SQRT(20))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q20" t="e">
-        <f>M19+1.96*M23/(SQRT(20))</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.35">
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>9</v>
       </c>
@@ -2314,150 +2161,12 @@
       <c r="F21">
         <v>4204</v>
       </c>
-      <c r="L21" t="s">
-        <v>12</v>
-      </c>
-      <c r="O21" t="s">
-        <v>15</v>
-      </c>
-      <c r="P21" t="e">
-        <f>M20-1.96*M24/(SQRT(20))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q21" t="e">
-        <f>M20+1.96*M24/(SQRT(20))</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="L22" t="s">
-        <v>13</v>
-      </c>
-      <c r="M22" t="e">
-        <f>_xlfn.STDEV.P(E42:E61)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="L23" t="s">
-        <v>14</v>
-      </c>
-      <c r="M23" t="e">
-        <f>_xlfn.STDEV.P(D42:D45,D47:D57,D59:D61)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="L24" t="s">
-        <v>15</v>
-      </c>
-      <c r="M24" t="e">
-        <f>_xlfn.STDEV.P(F42:F61)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="L25" s="1">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="L26" t="s">
-        <v>9</v>
-      </c>
-      <c r="M26" t="e">
-        <f>AVERAGE(E62:E81)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O26" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q26" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="L27" t="s">
-        <v>10</v>
-      </c>
-      <c r="M27" s="2" t="e">
-        <f>AVERAGE(D62:D75,D77:D81)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O27" t="s">
-        <v>13</v>
-      </c>
-      <c r="P27" t="e">
-        <f>M26+(-1.96)*M30/(SQRT(20))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q27" t="e">
-        <f>M26+1.96*M30/(SQRT(20))</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="L28" t="s">
-        <v>11</v>
-      </c>
-      <c r="M28" t="e">
-        <f>AVERAGE(F62:F81)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O28" t="s">
-        <v>14</v>
-      </c>
-      <c r="P28" t="e">
-        <f>M27-1.96*M31/(SQRT(20))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q28" t="e">
-        <f>M27+1.96*M31/(SQRT(20))</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="L29" t="s">
-        <v>12</v>
-      </c>
-      <c r="O29" t="s">
-        <v>15</v>
-      </c>
-      <c r="P29" t="e">
-        <f>M28-1.96*M32/(SQRT(20))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q29" t="e">
-        <f>M28+1.96*M32/(SQRT(20))</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="L30" t="s">
-        <v>13</v>
-      </c>
-      <c r="M30" t="e">
-        <f>_xlfn.STDEV.P(E62:E81)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="L31" t="s">
-        <v>14</v>
-      </c>
-      <c r="M31" t="e">
-        <f>_xlfn.STDEV.P(D62:D75,D77:D81)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="L32" t="s">
-        <v>15</v>
-      </c>
-      <c r="M32" t="e">
-        <f>_xlfn.STDEV.P(F50:F69)</f>
-        <v>#DIV/0!</v>
-      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="I25" s="1"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="J27" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/Code/SampleRun_Environment_Wind/1500Scens/1500_Naive_CI.xlsx
+++ b/Code/SampleRun_Environment_Wind/1500Scens/1500_Naive_CI.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\charl\OneDrive\Dokumente\A_Uni\HiWi\ArticleSubgradient\Code\SampleRun_Environment_Wind\1500Scens\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8E07756-A429-46AC-B5EE-7DEC6E74CA40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4424CA9E-61B1-4171-8761-5609982C0720}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="29">
   <si>
     <t>Instance</t>
   </si>
@@ -120,6 +120,9 @@
   </si>
   <si>
     <t>(2, 1): True, (2, 3): True, (2, 4): True, (5, 1): True, (5, 2): True, (5, 3): True, (5, 4): True, (6, 1): True, (6, 2): True, (6, 3): True, (6, 4): True, (6, 5): True</t>
+  </si>
+  <si>
+    <t>0.05 t-distribution 95% CI intervals</t>
   </si>
 </sst>
 </file>
@@ -168,7 +171,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -1640,10 +1643,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:N27"/>
+  <dimension ref="A1:Q21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+      <selection activeCell="H1" sqref="H1:Q1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1651,7 +1654,7 @@
     <col min="1" max="1" width="13.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1670,11 +1673,11 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="1">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="L1" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1693,21 +1696,21 @@
       <c r="F2">
         <v>4203</v>
       </c>
-      <c r="I2" t="s">
+      <c r="L2" t="s">
         <v>6</v>
       </c>
-      <c r="J2">
+      <c r="M2">
         <f>SUM(E2:E21)/20</f>
         <v>3093.7831844999992</v>
       </c>
-      <c r="L2" t="s">
+      <c r="O2" t="s">
         <v>13</v>
       </c>
-      <c r="N2" t="s">
+      <c r="Q2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>10</v>
       </c>
@@ -1726,26 +1729,26 @@
       <c r="F3">
         <v>4204</v>
       </c>
-      <c r="I3" t="s">
+      <c r="L3" t="s">
         <v>7</v>
       </c>
-      <c r="J3">
+      <c r="M3">
         <f>SUM(D2:D21)/20</f>
         <v>0.76544100000000004</v>
       </c>
-      <c r="L3" t="s">
+      <c r="O3" t="s">
         <v>10</v>
       </c>
-      <c r="M3">
-        <f>J2+(-1.96)*J6/(SQRT(20))</f>
-        <v>2892.8535062743622</v>
-      </c>
-      <c r="N3">
-        <f>J2+1.96*J6/(SQRT(20))</f>
-        <v>3294.7128627256361</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="P3">
+        <f>M2+(-H6)*M6/(SQRT(20))</f>
+        <v>2879.2165264536829</v>
+      </c>
+      <c r="Q3">
+        <f>M2+H6*M6/(SQRT(20))</f>
+        <v>3308.3498425463154</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>11</v>
       </c>
@@ -1764,26 +1767,26 @@
       <c r="F4">
         <v>4204</v>
       </c>
-      <c r="I4" t="s">
+      <c r="L4" t="s">
         <v>8</v>
       </c>
-      <c r="J4">
+      <c r="M4">
         <f>SUM(F2:F21)/20</f>
         <v>4203.8500000000004</v>
       </c>
-      <c r="L4" t="s">
+      <c r="O4" t="s">
         <v>11</v>
       </c>
-      <c r="M4">
-        <f>J3-1.96*J7/(SQRT(20))</f>
-        <v>0.75020475509522377</v>
-      </c>
-      <c r="N4">
-        <f>J3+1.96*J7/(SQRT(20))</f>
-        <v>0.7806772449047763</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="P4">
+        <f>M3-H6*M7/(SQRT(20))</f>
+        <v>0.74917068005890175</v>
+      </c>
+      <c r="Q4">
+        <f>M3+H6*M7/(SQRT(20))</f>
+        <v>0.78171131994109833</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>12</v>
       </c>
@@ -1802,22 +1805,22 @@
       <c r="F5">
         <v>4204</v>
       </c>
-      <c r="I5" t="s">
+      <c r="L5" t="s">
         <v>9</v>
       </c>
-      <c r="L5" t="s">
+      <c r="O5" t="s">
         <v>12</v>
       </c>
-      <c r="M5">
-        <f>J4-1.96*J8/(SQRT(20))</f>
-        <v>4203.6935065496582</v>
-      </c>
-      <c r="N5">
-        <f>J4+1.96*J8/(SQRT(20))</f>
-        <v>4204.0064934503425</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="P5">
+        <f>M4-H7*M8/(SQRT(20))</f>
+        <v>4203.6557053801635</v>
+      </c>
+      <c r="Q5">
+        <f>M4+H7*M8/(SQRT(20))</f>
+        <v>4204.0442946198373</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>13</v>
       </c>
@@ -1836,15 +1839,22 @@
       <c r="F6">
         <v>4204</v>
       </c>
-      <c r="I6" t="s">
+      <c r="H6">
+        <f>_xlfn.T.INV(0.975,19)</f>
+        <v>2.0930240544083087</v>
+      </c>
+      <c r="I6" s="2">
+        <v>0.95</v>
+      </c>
+      <c r="L6" t="s">
         <v>10</v>
       </c>
-      <c r="J6">
+      <c r="M6">
         <f>_xlfn.STDEV.P(E2:E21)</f>
         <v>458.46165225477961</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>14</v>
       </c>
@@ -1863,15 +1873,22 @@
       <c r="F7">
         <v>4204</v>
       </c>
-      <c r="I7" t="s">
+      <c r="H7">
+        <f>_xlfn.T.INV(0.9875,19)</f>
+        <v>2.4334402113749714</v>
+      </c>
+      <c r="I7" s="2">
+        <v>0.97499999999999998</v>
+      </c>
+      <c r="L7" t="s">
         <v>11</v>
       </c>
-      <c r="J7">
+      <c r="M7">
         <f>_xlfn.STDEV.P(D2:D21)</f>
         <v>3.4764570743790288E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>15</v>
       </c>
@@ -1890,15 +1907,15 @@
       <c r="F8">
         <v>4204</v>
       </c>
-      <c r="I8" t="s">
+      <c r="L8" t="s">
         <v>12</v>
       </c>
-      <c r="J8">
+      <c r="M8">
         <f>_xlfn.STDEV.P(F2:F21)</f>
         <v>0.35707142142714249</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>16</v>
       </c>
@@ -1917,9 +1934,8 @@
       <c r="F9">
         <v>4204</v>
       </c>
-      <c r="I9" s="1"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>17</v>
       </c>
@@ -1939,7 +1955,7 @@
         <v>4204</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>18</v>
       </c>
@@ -1958,9 +1974,8 @@
       <c r="F11">
         <v>4204</v>
       </c>
-      <c r="J11" s="2"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>19</v>
       </c>
@@ -1980,7 +1995,7 @@
         <v>4204</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>2</v>
       </c>
@@ -2000,7 +2015,7 @@
         <v>4203</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>20</v>
       </c>
@@ -2020,7 +2035,7 @@
         <v>4204</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>3</v>
       </c>
@@ -2040,7 +2055,7 @@
         <v>4204</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>4</v>
       </c>
@@ -2060,7 +2075,7 @@
         <v>4204</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>5</v>
       </c>
@@ -2079,9 +2094,8 @@
       <c r="F17">
         <v>4203</v>
       </c>
-      <c r="I17" s="1"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>6</v>
       </c>
@@ -2101,7 +2115,7 @@
         <v>4204</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>7</v>
       </c>
@@ -2120,9 +2134,8 @@
       <c r="F19">
         <v>4204</v>
       </c>
-      <c r="J19" s="2"/>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>8</v>
       </c>
@@ -2142,7 +2155,7 @@
         <v>4204</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>9</v>
       </c>
@@ -2161,12 +2174,6 @@
       <c r="F21">
         <v>4204</v>
       </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="I25" s="1"/>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="J27" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
